--- a/Общая ОСВ_Название компании (XLSX).xlsx
+++ b/Общая ОСВ_Название компании (XLSX).xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushin_in\Desktop\Новая папка\general_osv_and_amortization_distribution_by_folders\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFE4302-B9BE-4C24-88BF-599938961AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240B086D-7A11-4285-9AA6-B86150E69CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,15 +520,6 @@
     <xf numFmtId="40" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -548,6 +534,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,59 +918,59 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="29" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29" t="s">
+      <c r="J10" s="26"/>
+      <c r="K10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="29"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -997,15 +992,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6">
         <v>0</v>
@@ -1027,13 +1022,13 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9">
         <v>0</v>
@@ -1055,15 +1050,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="5"/>
       <c r="G14" s="7">
         <v>0</v>
@@ -1085,13 +1080,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="8"/>
       <c r="G15" s="10">
         <v>0</v>
@@ -1113,15 +1108,15 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6">
         <v>0</v>
@@ -1143,13 +1138,13 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9">
         <v>0</v>
@@ -1171,13 +1166,13 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9">
         <v>0</v>
@@ -1199,13 +1194,13 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <v>0</v>
@@ -1227,15 +1222,15 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6">
         <v>0</v>
@@ -1257,13 +1252,13 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9">
         <v>0</v>
@@ -1285,13 +1280,13 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9">
         <v>0</v>
@@ -1313,15 +1308,15 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6">
         <v>0</v>
@@ -1343,13 +1338,13 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="8"/>
       <c r="G24" s="10">
         <v>0</v>
@@ -1371,13 +1366,13 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="8"/>
       <c r="G25" s="9">
         <v>0</v>
@@ -1399,13 +1394,13 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9">
         <v>0</v>
@@ -1427,15 +1422,15 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="5"/>
       <c r="G27" s="11">
         <v>0</v>
@@ -1457,13 +1452,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="8"/>
       <c r="G28" s="12">
         <v>0</v>
@@ -1513,13 +1508,13 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="8"/>
       <c r="G30" s="12">
         <v>0</v>
@@ -1569,15 +1564,15 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="5"/>
       <c r="G32" s="7">
         <v>0</v>
@@ -1599,13 +1594,13 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="8"/>
       <c r="G33" s="10">
         <v>0</v>
@@ -1627,13 +1622,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="8"/>
       <c r="G34" s="10">
         <v>0</v>
@@ -1655,15 +1650,15 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6">
         <v>0</v>
@@ -1685,13 +1680,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="8"/>
       <c r="G36" s="12">
         <v>0</v>
@@ -1769,13 +1764,13 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="8"/>
       <c r="G39" s="9">
         <v>0</v>
@@ -1965,15 +1960,15 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="22"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="5"/>
       <c r="G46" s="7">
         <v>0</v>
@@ -1995,13 +1990,13 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="8"/>
       <c r="G47" s="10">
         <v>0</v>
@@ -2051,15 +2046,15 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22" t="s">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="22"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="5"/>
       <c r="G49" s="7">
         <v>0</v>
@@ -2081,13 +2076,13 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="8"/>
       <c r="G50" s="10">
         <v>0</v>
@@ -2137,15 +2132,15 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22" t="s">
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="22"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="5"/>
       <c r="G52" s="7">
         <v>0</v>
@@ -2167,13 +2162,13 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="8"/>
       <c r="G53" s="10">
         <v>0</v>
@@ -2223,15 +2218,15 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="5"/>
       <c r="G55" s="7">
         <v>0</v>
@@ -2253,15 +2248,15 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22" t="s">
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="5"/>
       <c r="G56" s="7">
         <v>0</v>
@@ -2283,13 +2278,13 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="8"/>
       <c r="G57" s="10">
         <v>0</v>
@@ -2311,15 +2306,15 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22" t="s">
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="22"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="5"/>
       <c r="G58" s="7">
         <v>0</v>
@@ -2341,15 +2336,15 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22" t="s">
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="22"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="5"/>
       <c r="G59" s="7">
         <v>0</v>
@@ -2371,13 +2366,13 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="8"/>
       <c r="G60" s="10">
         <v>0</v>
@@ -2455,13 +2450,13 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
       <c r="F63" s="8"/>
       <c r="G63" s="9">
         <v>0</v>
@@ -2511,15 +2506,15 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22" t="s">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="22"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="5"/>
       <c r="G65" s="7">
         <v>0</v>
@@ -2541,13 +2536,13 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
       <c r="F66" s="8"/>
       <c r="G66" s="10">
         <v>0</v>
@@ -2597,15 +2592,15 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22" t="s">
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="5"/>
       <c r="G68" s="7">
         <v>0</v>
@@ -2627,13 +2622,13 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
       <c r="F69" s="8"/>
       <c r="G69" s="10">
         <v>0</v>
@@ -2683,15 +2678,15 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22" t="s">
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="22"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6">
         <v>0</v>
@@ -2713,13 +2708,13 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="8"/>
       <c r="G72" s="9">
         <v>0</v>
@@ -2769,15 +2764,15 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22" t="s">
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="22"/>
+      <c r="E74" s="27"/>
       <c r="F74" s="5"/>
       <c r="G74" s="6">
         <v>0</v>
@@ -2799,13 +2794,13 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
       <c r="F75" s="8"/>
       <c r="G75" s="9">
         <v>0</v>
@@ -2855,15 +2850,15 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22" t="s">
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="22"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="5"/>
       <c r="G77" s="7">
         <v>0</v>
@@ -2885,13 +2880,13 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="8"/>
       <c r="G78" s="10">
         <v>0</v>
@@ -2913,13 +2908,13 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="8"/>
       <c r="G79" s="10">
         <v>0</v>
@@ -2941,15 +2936,15 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22" t="s">
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E80" s="22"/>
+      <c r="E80" s="27"/>
       <c r="F80" s="5"/>
       <c r="G80" s="7">
         <v>0</v>
@@ -2971,13 +2966,13 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="8"/>
       <c r="G81" s="10">
         <v>0</v>
@@ -2999,15 +2994,15 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22" t="s">
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="22"/>
+      <c r="E82" s="27"/>
       <c r="F82" s="5"/>
       <c r="G82" s="6">
         <v>0</v>
@@ -3029,15 +3024,15 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22" t="s">
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E83" s="22"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="5"/>
       <c r="G83" s="7">
         <v>0</v>
@@ -3059,15 +3054,15 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22" t="s">
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E84" s="22"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="5"/>
       <c r="G84" s="7">
         <v>0</v>
@@ -3089,11 +3084,11 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
       <c r="F85" s="8"/>
       <c r="G85" s="10">
         <v>0</v>
@@ -3115,15 +3110,15 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22" t="s">
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E86" s="22"/>
+      <c r="E86" s="27"/>
       <c r="F86" s="5"/>
       <c r="G86" s="7">
         <v>0</v>
@@ -3145,13 +3140,13 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
       <c r="F87" s="8"/>
       <c r="G87" s="10">
         <v>0</v>
@@ -3199,13 +3194,13 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
       <c r="F89" s="8"/>
       <c r="G89" s="10">
         <v>0</v>
@@ -3253,13 +3248,13 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
       <c r="F91" s="8"/>
       <c r="G91" s="10">
         <v>0</v>
@@ -3307,15 +3302,15 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22" t="s">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E93" s="22"/>
+      <c r="E93" s="27"/>
       <c r="F93" s="5"/>
       <c r="G93" s="7">
         <v>0</v>
@@ -3337,11 +3332,11 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="23"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
       <c r="F94" s="8"/>
       <c r="G94" s="10">
         <v>0</v>
@@ -3363,15 +3358,15 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22" t="s">
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="22"/>
+      <c r="E95" s="27"/>
       <c r="F95" s="5"/>
       <c r="G95" s="6">
         <v>0</v>
@@ -3393,13 +3388,13 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
       <c r="F96" s="8"/>
       <c r="G96" s="9">
         <v>0</v>
@@ -3421,13 +3416,13 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
       <c r="F97" s="8"/>
       <c r="G97" s="12">
         <v>0</v>
@@ -3449,15 +3444,15 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22" t="s">
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="22"/>
+      <c r="E98" s="27"/>
       <c r="F98" s="5"/>
       <c r="G98" s="7">
         <v>0</v>
@@ -3479,13 +3474,13 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
       <c r="F99" s="8"/>
       <c r="G99" s="10">
         <v>0</v>
@@ -3507,13 +3502,13 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
       <c r="F100" s="8"/>
       <c r="G100" s="10">
         <v>0</v>
@@ -3535,15 +3530,15 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22" t="s">
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E101" s="22"/>
+      <c r="E101" s="27"/>
       <c r="F101" s="5"/>
       <c r="G101" s="7">
         <v>0</v>
@@ -3565,15 +3560,15 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22" t="s">
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E102" s="22"/>
+      <c r="E102" s="27"/>
       <c r="F102" s="5"/>
       <c r="G102" s="7">
         <v>0</v>
@@ -3595,15 +3590,15 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22" t="s">
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E103" s="22"/>
+      <c r="E103" s="27"/>
       <c r="F103" s="5"/>
       <c r="G103" s="6">
         <v>0</v>
@@ -3625,13 +3620,13 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
       <c r="F104" s="8"/>
       <c r="G104" s="9">
         <v>0</v>
@@ -3709,13 +3704,13 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
       <c r="F107" s="8"/>
       <c r="G107" s="9">
         <v>0</v>
@@ -3765,14 +3760,14 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
       <c r="G109" s="20">
         <v>0</v>
       </c>
@@ -3794,103 +3789,6 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A96:E96"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="A104:E104"/>
@@ -3905,6 +3803,103 @@
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="D102:E102"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
